--- a/excelsheets/Student.xlsx
+++ b/excelsheets/Student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\purus\OneDrive\Desktop\Swathy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA934124-CE3E-4F1A-9F47-CEB4B0843221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9880D2C0-5090-4F1F-97A3-89FFBD004D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5472" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{EF64DD94-C31E-44C3-9897-CEF21B44ECC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EF64DD94-C31E-44C3-9897-CEF21B44ECC6}"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Student ID</t>
   </si>
@@ -73,17 +73,34 @@
     <t>tu</t>
   </si>
   <si>
-    <t>Anitha</t>
+    <t>a.n.swathyraj@gmail.com</t>
+  </si>
+  <si>
+    <t>Marriage@11</t>
+  </si>
+  <si>
+    <t>purushothharith82@gnail.com</t>
+  </si>
+  <si>
+    <t>papsal@08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,13 +123,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -507,28 +527,38 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1">
-        <v>1234589</v>
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>12335</v>
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{D0778B09-BD2F-4891-9642-C00B95514D72}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{BD0CFCD3-D758-4384-A519-77DBC7D12E75}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{3DCE9222-2736-44A7-89D8-C924E5214301}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{F752114A-C74A-4AC3-8A67-A339E27E24F7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>